--- a/Feedback.xlsx
+++ b/Feedback.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ugwul\OneDrive\Documents\GitHub\Joined-Together\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{9D1166E5-86AE-4CDB-9ADE-F8EA4568FD66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC745D43-0854-4669-A021-DBF6A8948823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Exploration rating 1 - 10</t>
   </si>
@@ -62,12 +62,15 @@
   </si>
   <si>
     <t>Corey Shanahan</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -145,20 +148,20 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -475,11 +478,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:AB7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:B7"/>
+      <selection activeCell="Q7" sqref="Q7:V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,81 +524,98 @@
       <c r="AB4" s="2"/>
     </row>
     <row r="5" spans="1:28" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="4">
+      <c r="B5" s="6"/>
+      <c r="C5" s="3">
         <v>8</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="G5" s="3" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="G5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="M5" s="4">
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="M5" s="3">
         <v>3</v>
       </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="Q5" s="4" t="s">
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="Q5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="X5" s="3" t="s">
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="X5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="3"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
     </row>
     <row r="6" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
     </row>
     <row r="7" spans="1:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="6"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5">
+        <v>6</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="G7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="M7" s="5">
+        <v>3</v>
+      </c>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="15">
     <mergeCell ref="Q4:V4"/>
     <mergeCell ref="Q5:V5"/>
     <mergeCell ref="X4:AB4"/>
@@ -608,6 +628,9 @@
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Feedback.xlsx
+++ b/Feedback.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ugwul\OneDrive\Documents\GitHub\Joined-Together\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC745D43-0854-4669-A021-DBF6A8948823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BDDA79-75F0-481E-9DC1-9A03B9B99A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Exploration rating 1 - 10</t>
   </si>
@@ -65,13 +65,31 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I felt confused as I didn’t know when the game ended as I was stuck in an endless loop </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When it came to the combining the elements it just didn’t work </t>
+  </si>
+  <si>
+    <t>Sean Mackey</t>
+  </si>
+  <si>
+    <t>At the beginning I felt rather confused, there was a clear objective with the sick child however there didn’t seem to be a progress. The elements are a nice idea but having it so you just disappear into steam seems a bit cheap to me</t>
+  </si>
+  <si>
+    <t>Curious on how the story may continue and how they just poofed away in steam</t>
+  </si>
+  <si>
+    <t>Yea I got stuck in a loop in the elements section, it wasn’t clear which helped and I ended up running into a bug</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +108,14 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -146,7 +172,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -159,11 +185,18 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -479,20 +512,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A4:AB7"/>
+  <dimension ref="A2:AC11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7:V7"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="15" max="15" width="12.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+    </row>
+    <row r="4" spans="1:29" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
+      <c r="F4" s="1"/>
       <c r="G4" s="2" t="s">
         <v>2</v>
       </c>
@@ -500,13 +569,13 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="9"/>
+      <c r="M4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="9"/>
       <c r="Q4" s="2" t="s">
         <v>5</v>
       </c>
@@ -515,6 +584,7 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
+      <c r="W4" s="1"/>
       <c r="X4" s="2" t="s">
         <v>7</v>
       </c>
@@ -522,17 +592,19 @@
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
+      <c r="AC4" s="1"/>
     </row>
-    <row r="5" spans="1:28" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:29" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="6"/>
+      <c r="B5" s="3"/>
       <c r="C5" s="3">
         <v>8</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
+      <c r="F5" s="1"/>
       <c r="G5" s="4" t="s">
         <v>3</v>
       </c>
@@ -540,11 +612,13 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
+      <c r="L5" s="1"/>
       <c r="M5" s="3">
         <v>3</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
+      <c r="P5" s="1"/>
       <c r="Q5" s="3" t="s">
         <v>6</v>
       </c>
@@ -553,6 +627,7 @@
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
+      <c r="W5" s="1"/>
       <c r="X5" s="4" t="s">
         <v>8</v>
       </c>
@@ -560,8 +635,9 @@
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
+      <c r="AC5" s="1"/>
     </row>
-    <row r="6" spans="1:28" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -590,8 +666,9 @@
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
     </row>
-    <row r="7" spans="1:28" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" ht="29.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -601,6 +678,7 @@
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
+      <c r="F7" s="1"/>
       <c r="G7" s="5" t="s">
         <v>10</v>
       </c>
@@ -608,14 +686,147 @@
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
+      <c r="L7" s="1"/>
       <c r="M7" s="5">
         <v>3</v>
       </c>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="1"/>
     </row>
+    <row r="8" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+    </row>
+    <row r="9" spans="1:29" ht="75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5">
+        <v>7</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="5">
+        <v>4</v>
+      </c>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="1"/>
+    </row>
+    <row r="10" spans="1:29" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+    </row>
+    <row r="11" spans="1:29" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="23">
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="X7:AB7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="Q9:V9"/>
+    <mergeCell ref="X9:AB9"/>
     <mergeCell ref="Q4:V4"/>
     <mergeCell ref="Q5:V5"/>
     <mergeCell ref="X4:AB4"/>
@@ -623,7 +834,6 @@
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="G4:K4"/>
     <mergeCell ref="G5:K5"/>
-    <mergeCell ref="L4:P4"/>
     <mergeCell ref="M5:O5"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="A5:B5"/>
@@ -631,6 +841,7 @@
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="G7:K7"/>
     <mergeCell ref="M7:O7"/>
+    <mergeCell ref="Q7:V7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
